--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_23_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-741165.2370083106</v>
+        <v>-743700.2078841652</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13573630.12559108</v>
+        <v>13573630.12559107</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>254.6715963841611</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>39.97915173387091</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247631</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.85306366232886</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>46.66139061606864</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>234.2607720434719</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>213.0175435007608</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>267.5530630264154</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>107.7336662990908</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>206.7767479770367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>184.4530101301292</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>15.83694765563978</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>117.7126336312586</v>
+        <v>76.94983665475105</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>145.6229551553992</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>11.79076481679217</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>67.96934215963584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2011,16 +2011,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>36.43062059490502</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>146.053516066753</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>104.7777418077837</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2293,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.08971311158695</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>130.5513683573773</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652565</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652565</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,22 +4138,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1422.200456328342</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.200456328342</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.200456328342</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.412203730098</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4355,25 +4355,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2715.423947244959</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392464</v>
+        <v>2341.958188983879</v>
       </c>
       <c r="Y2" t="n">
-        <v>1808.800296392464</v>
+        <v>1951.818857008067</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4410,10 +4410,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,34 +4425,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.2599633500314</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C4" t="n">
-        <v>515.3237804221245</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D4" t="n">
-        <v>365.2071410097888</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>217.2940474273956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>70.40409992948528</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4486,52 +4486,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>873.7542880241758</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>873.7542880241758</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>873.7542880241758</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181849</v>
+        <v>619.069799818289</v>
       </c>
       <c r="W4" t="n">
-        <v>684.2599633500314</v>
+        <v>619.069799818289</v>
       </c>
       <c r="X4" t="n">
-        <v>684.2599633500314</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y4" t="n">
-        <v>684.2599633500314</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1904.487375535336</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1535.524858594924</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>758.7856865549918</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535336</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.5487792519424</v>
+        <v>332.773976541745</v>
       </c>
       <c r="C7" t="n">
-        <v>530.5487792519424</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>78.33486996962284</v>
@@ -4729,46 +4729,46 @@
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="T7" t="n">
-        <v>530.5487792519424</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="U7" t="n">
-        <v>530.5487792519424</v>
+        <v>622.1911465787057</v>
       </c>
       <c r="V7" t="n">
-        <v>530.5487792519424</v>
+        <v>622.1911465787057</v>
       </c>
       <c r="W7" t="n">
-        <v>530.5487792519424</v>
+        <v>332.773976541745</v>
       </c>
       <c r="X7" t="n">
-        <v>530.5487792519424</v>
+        <v>332.773976541745</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.5487792519424</v>
+        <v>332.773976541745</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4778,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
         <v>1976.204921733553</v>
@@ -4799,13 +4799,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4820,34 +4820,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>2739.810011970445</v>
       </c>
       <c r="X8" t="n">
-        <v>2531.48361052258</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>2531.48361052258</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>440.0982547706548</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>185.4137665647679</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218342</v>
+        <v>843.1598980861128</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218342</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218342</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,52 +5027,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.485273605118</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2232.8234857363</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2013.222020759241</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1724.146794103439</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1469.462305897552</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.931364336515</v>
+        <v>1180.045135860591</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>952.055584962574</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>731.2630058190439</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5270,22 +5270,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,31 +5294,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>801.6605733532803</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W16" t="n">
-        <v>1432.091168225067</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X16" t="n">
-        <v>1204.10161732705</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y16" t="n">
-        <v>983.30903818352</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="17">
@@ -5507,55 +5507,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192542</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>297.8113689946122</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>130.6152697094921</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>130.6152697094921</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,19 +5747,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708873</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>888.6771326738542</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>738.5604932615184</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>590.6473996791253</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.395944601127</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,52 +5984,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6200,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>449.485266605716</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>449.485266605716</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>449.485266605716</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6437,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6552,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,16 +6835,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,37 +6856,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
         <v>1746.193029533436</v>
@@ -6914,31 +6914,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
         <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7151,28 +7151,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,13 +7585,13 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7807,31 +7807,31 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311328</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22550,13 +22550,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>152.2044493575504</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>309.2618169835421</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.02187758417838</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>143.1076347153733</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,16 +22762,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>52.26222629311909</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856667</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>35.40333084624535</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>213.918890572245</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>29.94462611521701</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016429</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>218.5536561769551</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462226</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>44.8352157236605</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>106.0841272570767</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>40.64330621514758</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.97276993489157</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1001810.413939769</v>
+        <v>1001810.413939768</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1184391.280745792</v>
+        <v>1184391.280745793</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1184391.280745792</v>
+        <v>1184391.280745793</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1184391.280745793</v>
+        <v>1184391.280745792</v>
       </c>
     </row>
     <row r="11">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254693</v>
+        <v>207271.1201254692</v>
       </c>
       <c r="C2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.530959285</v>
       </c>
       <c r="D2" t="n">
         <v>246312.530959285</v>
       </c>
       <c r="E2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
@@ -26332,13 +26332,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="J2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070018</v>
+        <v>242143.9799070017</v>
       </c>
       <c r="L2" t="n">
         <v>242143.9799070018</v>
@@ -26347,7 +26347,7 @@
         <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592847</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972774</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291436</v>
+        <v>104482.7459291437</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19318.23781180948</v>
+        <v>19318.23781180937</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26433,7 +26433,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26448,16 +26448,16 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496079</v>
       </c>
       <c r="N4" t="n">
-        <v>22817.55530496085</v>
+        <v>22817.55530496079</v>
       </c>
       <c r="O4" t="n">
+        <v>22817.55530496081</v>
+      </c>
+      <c r="P4" t="n">
         <v>22817.55530496082</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22817.55530496083</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1248725.803975326</v>
+        <v>-1249051.149065607</v>
       </c>
       <c r="C6" t="n">
-        <v>44781.84629383904</v>
+        <v>44781.84629383915</v>
       </c>
       <c r="D6" t="n">
-        <v>44781.84629383909</v>
+        <v>44781.84629383916</v>
       </c>
       <c r="E6" t="n">
-        <v>-199217.7077661278</v>
+        <v>-199252.4456915641</v>
       </c>
       <c r="F6" t="n">
-        <v>126194.7540412272</v>
+        <v>126160.0161157916</v>
       </c>
       <c r="G6" t="n">
-        <v>126194.7540412273</v>
+        <v>126160.0161157916</v>
       </c>
       <c r="H6" t="n">
-        <v>126194.7540412273</v>
+        <v>126160.0161157916</v>
       </c>
       <c r="I6" t="n">
-        <v>126194.7540412272</v>
+        <v>126160.0161157916</v>
       </c>
       <c r="J6" t="n">
-        <v>-91336.44835605001</v>
+        <v>-91371.18628148582</v>
       </c>
       <c r="K6" t="n">
-        <v>126194.7540412273</v>
+        <v>126160.0161157915</v>
       </c>
       <c r="L6" t="n">
-        <v>126194.7540412275</v>
+        <v>126160.0161157916</v>
       </c>
       <c r="M6" t="n">
-        <v>15848.11387126494</v>
+        <v>15848.11387126487</v>
       </c>
       <c r="N6" t="n">
-        <v>120330.8598004087</v>
+        <v>120330.8598004086</v>
       </c>
       <c r="O6" t="n">
         <v>120330.8598004088</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26790,19 +26790,19 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099649</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.13331566353736e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>162.1727445966994</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0.9102750858689603</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>141.6654981199222</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>114.3773070458464</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27822,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>111.8152829770784</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>79.4350902285762</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198.2808315333514</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>311.9153108144951</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>168.8103647053324</v>
+        <v>209.57316168184</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>248.5245325067415</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067226</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,25 +32786,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S26" t="n">
         <v>125.3175546292901</v>
@@ -33020,7 +33020,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33190,7 +33190,7 @@
         <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
@@ -33272,10 +33272,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,31 +33725,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33761,13 +33761,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>400.5469039565762</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,31 +34436,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597745</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35483,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>114.5501250924112</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316704</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36194,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36838,7 +36838,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36920,10 +36920,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,16 +37388,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,16 +37625,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>257.9506595121318</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,16 +38099,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
